--- a/Datos/Anuario2024/130203_CentroCulturalLaBeneficiencia.xlsx
+++ b/Datos/Anuario2024/130203_CentroCulturalLaBeneficiencia.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="124" r:id="rId1"/>
+    <sheet name="1" sheetId="77" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="86" r:id="rId3"/>
+    <sheet name="2" sheetId="59" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -52,86 +58,225 @@
     <definedName name="_R8_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$24</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+  <si>
+    <t>Paleolítico-Neolítico-Metales</t>
+  </si>
+  <si>
+    <t>Cultura Ibérica</t>
+  </si>
+  <si>
+    <t>Romanos-Visigodos</t>
+  </si>
+  <si>
+    <t>Historia del dinero</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Conciertos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conferencias </t>
+  </si>
+  <si>
+    <t>Inauguraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talleres/Teatro </t>
+  </si>
+  <si>
+    <t>Exposiciones temporales</t>
+  </si>
+  <si>
+    <t>Exposiciones permanentes</t>
+  </si>
+  <si>
+    <t>Conferencias</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Teatro Talleres</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Mosaico Font de Mussa</t>
+  </si>
+  <si>
+    <t>La Ciudad Vivida</t>
+  </si>
+  <si>
+    <t>Huerta &amp; Marjal</t>
+  </si>
+  <si>
+    <t>Secano y Montaña</t>
+  </si>
+  <si>
+    <t>Museo de Etnología</t>
+  </si>
+  <si>
+    <t>Museo de Prehistoria</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES CULTURALES DEL CENTRO CULTURAL LA BENEFICENCIA</t>
+  </si>
+  <si>
+    <t>1. Número de visitantes al Centro Cultural La Beneficencia. 2023</t>
+  </si>
+  <si>
+    <t>Mudanzas</t>
+  </si>
+  <si>
+    <t>De ranas, gatos y palmeras</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Arte Rupestre Australia</t>
+  </si>
+  <si>
+    <t>27/07/2022   -   29/01/2023</t>
+  </si>
+  <si>
+    <t>26/07/2022   -   08/01/2023</t>
+  </si>
+  <si>
+    <t>12/2022   -   06/2023</t>
+  </si>
+  <si>
+    <t>2. Exposiciones y Actividades en el Centro Cultural La Beneficencia. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Centro Cultural La Beneficencia. Diputación de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -173,97 +318,97 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +416,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -339,13 +485,91 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4602480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="49530" y="249555"/>
+          <a:ext cx="4924425" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -586,8 +810,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5088,8 +5312,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5789,904 +6013,754 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="79.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="inlineStr">
-        <is>
-          <t>ACTIVIDADES CULTURALES DEL CENTRO CULTURAL LA BENEFICENCIA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.7109375" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
-    <col width="14.42578125" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="12.85546875" customWidth="1" min="5" max="6"/>
-    <col width="14.28515625" customWidth="1" min="7" max="8"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="inlineStr">
-        <is>
-          <t>1. Número de visitantes al Centro Cultural La Beneficencia. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="25" t="n"/>
-      <c r="C1" s="25" t="n"/>
-      <c r="D1" s="25" t="n"/>
-      <c r="E1" s="25" t="n"/>
-      <c r="F1" s="25" t="n"/>
-      <c r="G1" s="25" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="n"/>
-      <c r="B2" s="25" t="n"/>
-      <c r="C2" s="25" t="n"/>
-      <c r="D2" s="25" t="n"/>
-      <c r="E2" s="25" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="25" t="n"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Museo de Etnología</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Museo de Prehistoria</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Teatro Talleres</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Conferencias</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Conciertos</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Inauguraciones</t>
-        </is>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="37" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="n">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="20">
         <v>151016</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="20">
         <v>112751</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="20">
         <v>6593</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="20">
         <v>15409</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="20">
         <v>9093</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="20">
         <v>604</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="n">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14">
         <v>6657</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="14">
         <v>5654</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>870</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>566</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="14">
         <v>452</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="18" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B6" s="22" t="n">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15">
         <v>7750</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="15">
         <v>7394</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="15">
         <v>470</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="15">
         <v>995</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="15">
         <v>283</v>
       </c>
-      <c r="G6" s="22" t="n">
+      <c r="G6" s="15">
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14">
         <v>8735</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="14">
         <v>7013</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="14">
         <v>306</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="14">
         <v>1153</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="14">
         <v>664</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B8" s="22" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15">
         <v>8805</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="15">
         <v>7021</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="15">
         <v>333</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="15">
         <v>931</v>
       </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="15">
         <v>1367</v>
       </c>
-      <c r="G8" s="22" t="n">
+      <c r="G8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B9" s="14" t="n">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14">
         <v>16416</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="14">
         <v>12171</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="14">
         <v>335</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="14">
         <v>2141</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="14">
         <v>1709</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B10" s="22" t="n">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="15">
         <v>12674</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="15">
         <v>9373</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="15">
         <v>251</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="15">
         <v>863</v>
       </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="15">
         <v>1546</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="G10" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="n">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="14">
         <v>16702</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="14">
         <v>9844</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="14">
         <v>519</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="14">
         <v>1177</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="14">
         <v>646</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="14">
         <v>450</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="18" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B12" s="22" t="n">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15">
         <v>18445</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="15">
         <v>9213</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="15">
         <v>268</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="15">
         <v>167</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="G12" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="n">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14">
         <v>13564</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="14">
         <v>10085</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="14">
         <v>852</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="14">
         <v>1887</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="14">
         <v>265</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="18" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B14" s="22" t="n">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15">
         <v>4657</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="15">
         <v>11783</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="15">
         <v>1007</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="15">
         <v>2337</v>
       </c>
-      <c r="F14" s="22" t="n">
+      <c r="F14" s="15">
         <v>307</v>
       </c>
-      <c r="G14" s="22" t="n">
+      <c r="G14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="9" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B15" s="14" t="n">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="14">
         <v>18737</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="14">
         <v>14024</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="14">
         <v>1150</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="14">
         <v>1849</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="14">
         <v>1033</v>
       </c>
-      <c r="G15" s="14" t="n">
+      <c r="G15" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="18" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B16" s="22" t="n">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="15">
         <v>17874</v>
       </c>
-      <c r="C16" s="22" t="n">
+      <c r="C16" s="15">
         <v>9176</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="15">
         <v>232</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="15">
         <v>1510</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="15">
         <v>654</v>
       </c>
-      <c r="G16" s="22" t="n">
+      <c r="G16" s="15">
         <v>120</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Centro Cultural La Beneficencia. Diputación de València.</t>
-        </is>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D6:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="17" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="17" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="17" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="17" min="4" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="6">
-      <c r="D6" s="18" t="n"/>
-      <c r="E6" s="22" t="n"/>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+      <c r="E6" s="15"/>
     </row>
-    <row r="7">
-      <c r="D7" s="18" t="n"/>
-      <c r="E7" s="22" t="n"/>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
     </row>
-    <row r="8">
-      <c r="D8" s="18" t="n"/>
-      <c r="E8" s="22" t="n"/>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
     </row>
-    <row r="9">
-      <c r="D9" s="18" t="n"/>
-      <c r="E9" s="22" t="n"/>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+      <c r="E9" s="15"/>
     </row>
-    <row r="10">
-      <c r="D10" s="18" t="n"/>
-      <c r="E10" s="22" t="n"/>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
     </row>
-    <row r="11">
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="22" t="n"/>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
     </row>
-    <row r="12">
-      <c r="D12" s="18" t="n"/>
-      <c r="E12" s="22" t="n"/>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
     </row>
-    <row r="13">
-      <c r="D13" s="18" t="n"/>
-      <c r="E13" s="22" t="n"/>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+      <c r="E13" s="15"/>
     </row>
-    <row r="14">
-      <c r="D14" s="18" t="n"/>
-      <c r="E14" s="22" t="n"/>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
     </row>
-    <row r="15">
-      <c r="D15" s="18" t="n"/>
-      <c r="E15" s="22" t="n"/>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
     </row>
-    <row r="16">
-      <c r="D16" s="18" t="n"/>
-      <c r="E16" s="22" t="n"/>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
     </row>
-    <row r="17">
-      <c r="D17" s="18" t="n"/>
-      <c r="E17" s="22" t="n"/>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="8"/>
+      <c r="E17" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja14">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="39.42578125" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="inlineStr">
-        <is>
-          <t>2. Exposiciones y Actividades en el Centro Cultural La Beneficencia. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="25" t="n"/>
-      <c r="C1" s="22" t="n"/>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="10"/>
     </row>
-    <row r="2">
-      <c r="A2" s="25" t="n"/>
-      <c r="B2" s="25" t="n"/>
-      <c r="C2" s="22" t="n"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>Conciertos</t>
-        </is>
-      </c>
-      <c r="B4" s="25" t="n">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="25">
         <v>65</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="22">
         <v>9093</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conferencias </t>
-        </is>
-      </c>
-      <c r="B5" s="26" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="26">
         <v>163</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="21">
         <v>15409</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="25" t="inlineStr">
-        <is>
-          <t>Inauguraciones</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="n">
+      <c r="C6" s="36">
         <v>604</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Talleres/Teatro </t>
-        </is>
-      </c>
-      <c r="B7" s="26" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="26">
         <v>49</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="21">
         <v>6593</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="25" t="n"/>
-      <c r="B8" s="25" t="n"/>
-      <c r="C8" s="16" t="n"/>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="16"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="30" t="inlineStr">
-        <is>
-          <t>Museo de Prehistoria</t>
-        </is>
-      </c>
-      <c r="B10" s="23" t="n"/>
-      <c r="C10" s="21" t="n"/>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Exposiciones permanentes</t>
-        </is>
-      </c>
-      <c r="B11" s="24" t="n"/>
-      <c r="C11" s="22" t="n"/>
-      <c r="D11" s="27" t="n"/>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="27"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="29" t="inlineStr">
-        <is>
-          <t>Paleolítico-Neolítico-Metales</t>
-        </is>
-      </c>
-      <c r="B12" s="31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" s="21" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21">
         <v>57744</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="28" t="inlineStr">
-        <is>
-          <t>Cultura Ibérica</t>
-        </is>
-      </c>
-      <c r="B13" s="32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C13" s="22" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="22">
         <v>46586</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="29" t="inlineStr">
-        <is>
-          <t>Mosaico Font de Mussa</t>
-        </is>
-      </c>
-      <c r="B14" s="31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C14" s="21" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="21">
         <v>45053</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="28" t="inlineStr">
-        <is>
-          <t>Romanos-Visigodos</t>
-        </is>
-      </c>
-      <c r="B15" s="32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C15" s="22" t="n">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="22">
         <v>52401</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="29" t="inlineStr">
-        <is>
-          <t>Historia del dinero</t>
-        </is>
-      </c>
-      <c r="B16" s="31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C16" s="21" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="21">
         <v>36163</v>
       </c>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>Exposiciones temporales</t>
-        </is>
-      </c>
-      <c r="B17" s="24" t="n"/>
-      <c r="C17" s="22" t="n"/>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="29" t="inlineStr">
-        <is>
-          <t>Arte Rupestre Australia</t>
-        </is>
-      </c>
-      <c r="B18" s="33" t="inlineStr">
-        <is>
-          <t>27/07/2022   -   29/01/2023</t>
-        </is>
-      </c>
-      <c r="C18" s="21" t="n">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="21">
         <v>6247</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="37" t="inlineStr">
-        <is>
-          <t>Museo de Etnología</t>
-        </is>
-      </c>
-      <c r="B19" s="24" t="n"/>
-      <c r="C19" s="22" t="n"/>
-      <c r="D19" s="27" t="n"/>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="27"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="38" t="inlineStr">
-        <is>
-          <t>Exposiciones permanentes</t>
-        </is>
-      </c>
-      <c r="B20" s="39" t="n"/>
-      <c r="C20" s="40" t="n"/>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="28" t="inlineStr">
-        <is>
-          <t>La Ciudad Vivida</t>
-        </is>
-      </c>
-      <c r="B21" s="32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C21" s="22" t="n">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22">
         <v>67161</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="41" t="inlineStr">
-        <is>
-          <t>Huerta &amp; Marjal</t>
-        </is>
-      </c>
-      <c r="B22" s="42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C22" s="40" t="n">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="40">
         <v>61367</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
-        <is>
-          <t>Secano y Montaña</t>
-        </is>
-      </c>
-      <c r="B23" s="32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C23" s="22" t="n">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="22">
         <v>57830</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="38" t="inlineStr">
-        <is>
-          <t>Exposiciones temporales</t>
-        </is>
-      </c>
-      <c r="B24" s="39" t="n"/>
-      <c r="C24" s="40" t="n"/>
-      <c r="D24" s="1" t="n"/>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="1"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="28" t="inlineStr">
-        <is>
-          <t>Mudanzas</t>
-        </is>
-      </c>
-      <c r="B25" s="34" t="inlineStr">
-        <is>
-          <t>26/07/2022   -   08/01/2023</t>
-        </is>
-      </c>
-      <c r="C25" s="22" t="n">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="22">
         <v>2081</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="41" t="inlineStr">
-        <is>
-          <t>De ranas, gatos y palmeras</t>
-        </is>
-      </c>
-      <c r="B26" s="43" t="inlineStr">
-        <is>
-          <t>12/2022   -   06/2023</t>
-        </is>
-      </c>
-      <c r="C26" s="40" t="n">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="40">
         <v>7914</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Centro Cultural La Beneficencia. Diputación de València.</t>
-        </is>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>